--- a/downloads/drive/society-transaction.xlsx
+++ b/downloads/drive/society-transaction.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -454,9 +455,113 @@
         <v>true</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>pravinb</v>
+      </c>
+      <c r="B3" t="str">
+        <v>202</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>drive</v>
+      </c>
+      <c r="E3" t="str">
+        <v>06/22/2024</v>
+      </c>
+      <c r="F3" t="str">
+        <v>maintainance</v>
+      </c>
+      <c r="G3" t="str">
+        <v>na</v>
+      </c>
+      <c r="H3" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>pravinb</v>
+      </c>
+      <c r="B4" t="str">
+        <v>202</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>drive</v>
+      </c>
+      <c r="E4" t="str">
+        <v>6/23/2024</v>
+      </c>
+      <c r="F4" t="str">
+        <v>maintainance</v>
+      </c>
+      <c r="G4" t="str">
+        <v>na</v>
+      </c>
+      <c r="H4" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>pravinb</v>
+      </c>
+      <c r="B5" t="str">
+        <v>302</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2</v>
+      </c>
+      <c r="D5" t="str">
+        <v>drive</v>
+      </c>
+      <c r="E5" t="str">
+        <v>6/25/2024</v>
+      </c>
+      <c r="F5" t="str">
+        <v>maintainance</v>
+      </c>
+      <c r="G5" t="str">
+        <v>na</v>
+      </c>
+      <c r="H5" t="str">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>pravinb</v>
+      </c>
+      <c r="B6" t="str">
+        <v>402</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <v>drive</v>
+      </c>
+      <c r="E6" t="str">
+        <v>6/30/2024</v>
+      </c>
+      <c r="F6" t="str">
+        <v>maintainance</v>
+      </c>
+      <c r="G6" t="str">
+        <v>na</v>
+      </c>
+      <c r="H6" t="str">
+        <v>true</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>